--- a/testData/HackathonInputData.xlsx
+++ b/testData/HackathonInputData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cognizant Projects\Hackathon\Hackathon Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2266631\eclipse-workspace\hackathon\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC8E651-AC0A-45CE-AE9F-7629E2AE480F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4188DE77-67C3-4533-996F-BC627D8741EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{639081D6-D308-44C3-94CF-4DDB0F1FBD79}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{639081D6-D308-44C3-94CF-4DDB0F1FBD79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>From</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>Mumbai</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>https://www.makemytrip.com/</t>
   </si>
 </sst>
 </file>
@@ -431,22 +425,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4309D26-48A4-4C34-B126-1BA312810598}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="5" width="21.21875" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.54296875" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="5" width="21.1796875" customWidth="1"/>
+    <col min="6" max="6" width="26.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,10 +453,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -486,9 +474,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{74E04C33-2DBF-4FE6-9E73-EACA8AF3F488}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{2CA4FB9E-A3EC-4CB7-885A-CA3C622A3136}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>